--- a/model/Output Files/Output_30_40.xlsx
+++ b/model/Output Files/Output_30_40.xlsx
@@ -19,6 +19,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="State of Charge" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fed-in Capacity" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net demand" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Net surplus" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11700,6 +11702,7302 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-1211.001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1135.776</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1061.331</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1030.697</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-977.163</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1008.856868852459</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1151.03468852459</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1125.472819672131</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1075.148950819672</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1272.467803278689</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1378.406065573771</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1346.175</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1297.449</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1139.613</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1064.046</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-879.03</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-810.75</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-743.25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-720.95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-675.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-710.9562814070352</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-813.003391959799</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-1064.824371859296</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-1197.350502512563</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-1172.55</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-1129.38</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-977.1</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-905.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1149.885</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1085.772</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1021.05</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1001.528</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-959.106</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1002.544698113208</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-1147.668452830189</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-1181.613594339623</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-1405.102160377358</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-1519.990216981132</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-1497.576</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-1455.795</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-1306.293</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-1236.282</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S14" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X14" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S16" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W16" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X16" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S17" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V17" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V19" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S20" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W20" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S21" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S24" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U24" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S25" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T26" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U26" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V26" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R27" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S27" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R28" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S28" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T28" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W28" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S29" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W29" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X29" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S30" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X30" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S32" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U32" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S33" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S35" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T35" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S36" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V36" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S37" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W37" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>-1211.51</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1136.26</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1061.81</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-1031.17</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-977.63</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1009.349836065574</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1151.528360655738</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-1125.528524590164</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S38" t="n">
+        <v>-1075.34368852459</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-1272.924754098361</v>
+      </c>
+      <c r="U38" t="n">
+        <v>-1378.985081967213</v>
+      </c>
+      <c r="V38" t="n">
+        <v>-1346.75</v>
+      </c>
+      <c r="W38" t="n">
+        <v>-1297.99</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-1140.13</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-1064.46</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>-879.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-811</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-743.5</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-721.2</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-676</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-711.2160804020101</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-813.0416834170856</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R39" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S39" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T39" t="n">
+        <v>-1065.048391959799</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-1197.797286432161</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-1173</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-1129.8</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-977.5</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>-906</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>-1150.35</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1086.22</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-1021.5</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-1001.98</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-959.5599999999999</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-1003.030188679245</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-1148.119716981132</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R40" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S40" t="n">
+        <v>-1181.813066037736</v>
+      </c>
+      <c r="T40" t="n">
+        <v>-1405.646462264151</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-1520.670801886793</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-1498.26</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-1456.45</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-1306.93</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-1236.82</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>-1205.402</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1130.452</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-1056.062</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-1025.494</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-972.0260000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-1003.434229508197</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-1145.604295081967</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-1124.86006557377</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R41" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S41" t="n">
+        <v>-1073.006836065574</v>
+      </c>
+      <c r="T41" t="n">
+        <v>-1267.441344262295</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-1372.036885245902</v>
+      </c>
+      <c r="V41" t="n">
+        <v>-1339.85</v>
+      </c>
+      <c r="W41" t="n">
+        <v>-1291.498</v>
+      </c>
+      <c r="X41" t="n">
+        <v>-1133.926</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>-1059.492</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>-876.0599999999999</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-808</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-740.5</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-718.2</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-673</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-708.0984924623116</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-812.5821859296483</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R42" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S42" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T42" t="n">
+        <v>-1062.360150753769</v>
+      </c>
+      <c r="U42" t="n">
+        <v>-1192.435879396985</v>
+      </c>
+      <c r="V42" t="n">
+        <v>-1167.6</v>
+      </c>
+      <c r="W42" t="n">
+        <v>-1124.76</v>
+      </c>
+      <c r="X42" t="n">
+        <v>-972.7</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>-902.4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>-1144.77</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1080.844</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-1016.1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-996.5559999999998</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-954.112</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-997.2043018867926</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1142.704547169811</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S43" t="n">
+        <v>-1179.419405660377</v>
+      </c>
+      <c r="T43" t="n">
+        <v>-1399.114839622641</v>
+      </c>
+      <c r="U43" t="n">
+        <v>-1512.503783018868</v>
+      </c>
+      <c r="V43" t="n">
+        <v>-1490.052</v>
+      </c>
+      <c r="W43" t="n">
+        <v>-1448.59</v>
+      </c>
+      <c r="X43" t="n">
+        <v>-1299.286</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>-1230.364</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>-1205.402</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1130.452</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-1056.062</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-1025.494</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-972.0260000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-1003.434229508197</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1145.604295081967</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-1124.86006557377</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-982.7771311475411</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-953.4</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-947.5199999999999</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-900.48</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-895.4400000000001</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-873.6</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-801.36</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-884.8150000000001</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-976.9686885245902</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-1073.006836065574</v>
+      </c>
+      <c r="T44" t="n">
+        <v>-1267.441344262295</v>
+      </c>
+      <c r="U44" t="n">
+        <v>-1372.036885245902</v>
+      </c>
+      <c r="V44" t="n">
+        <v>-1339.85</v>
+      </c>
+      <c r="W44" t="n">
+        <v>-1291.498</v>
+      </c>
+      <c r="X44" t="n">
+        <v>-1133.926</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>-1059.492</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>-876.0599999999999</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-808</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-740.5</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-718.2</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-673</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-708.0984924623116</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-812.5821859296483</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-676.1519095477387</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-672</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-798</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-798</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-756</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-756</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-739.2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-672</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-672</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-646.8000000000001</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-772.479648241206</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-1062.360150753769</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-1192.435879396985</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-1167.6</v>
+      </c>
+      <c r="W45" t="n">
+        <v>-1124.76</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-972.7</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>-902.4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>14.2</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>-1144.77</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1080.844</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1016.1</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-996.5559999999998</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-954.112</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-997.2043018867926</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1142.704547169811</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1105.458962264151</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-877.3076886792453</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-978.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-980.2800000000001</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-939.1200000000001</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-940.8000000000001</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-925.6800000000001</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-860.16</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-862.84</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-996.7183018867925</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1179.419405660377</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1399.114839622641</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1512.503783018868</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1490.052</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1448.59</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1299.286</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1230.364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>41.67280327868852</v>
+      </c>
+      <c r="K2" t="n">
+        <v>98.90032786885224</v>
+      </c>
+      <c r="L2" t="n">
+        <v>238.5419344262296</v>
+      </c>
+      <c r="M2" t="n">
+        <v>275.5338852459015</v>
+      </c>
+      <c r="N2" t="n">
+        <v>263.2090327868855</v>
+      </c>
+      <c r="O2" t="n">
+        <v>203.3854098360657</v>
+      </c>
+      <c r="P2" t="n">
+        <v>136.9679344262292</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>41.379</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21.35596721311475</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>63.84412060301509</v>
+      </c>
+      <c r="J3" t="n">
+        <v>487.0121859296484</v>
+      </c>
+      <c r="K3" t="n">
+        <v>894.0187939698493</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1178.974371859297</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1342.470477386935</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1369.313567839196</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1262.068216080402</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1049.507663316583</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>685.3232412060302</v>
+      </c>
+      <c r="R3" t="n">
+        <v>286.0976130653266</v>
+      </c>
+      <c r="S3" t="n">
+        <v>32.29713567839197</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14.05307547169812</v>
+      </c>
+      <c r="J4" t="n">
+        <v>79.34762264150945</v>
+      </c>
+      <c r="K4" t="n">
+        <v>399.1931603773585</v>
+      </c>
+      <c r="L4" t="n">
+        <v>674.8035566037737</v>
+      </c>
+      <c r="M4" t="n">
+        <v>853.8429999999998</v>
+      </c>
+      <c r="N4" t="n">
+        <v>885.1183490566038</v>
+      </c>
+      <c r="O4" t="n">
+        <v>759.0590283018867</v>
+      </c>
+      <c r="P4" t="n">
+        <v>541.5244716981133</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>196.2071320754717</v>
+      </c>
+      <c r="R4" t="n">
+        <v>45.54139622641512</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6</v>
+      </c>
+      <c r="J5" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L5" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M5" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N5" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O5" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P5" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R5" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J6" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K6" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R6" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S6" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J7" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K7" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L7" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M7" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N7" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O7" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P7" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R7" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K8" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L8" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M8" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N8" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O8" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P8" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R8" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J9" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K9" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R9" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S9" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K10" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L10" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M10" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N10" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O10" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P10" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R10" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L11" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M11" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N11" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O11" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P11" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R11" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J12" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K12" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R12" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S12" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J13" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L13" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M13" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N13" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O13" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P13" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R13" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J14" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K14" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L14" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M14" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N14" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O14" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P14" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R14" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J15" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K15" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R15" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S15" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J16" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K16" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L16" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M16" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N16" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O16" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P16" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R16" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K17" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L17" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M17" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N17" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O17" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P17" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R17" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J18" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K18" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R18" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S18" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>5.2</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J19" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K19" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L19" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M19" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N19" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O19" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P19" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R19" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K20" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L20" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M20" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N20" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O20" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P20" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R20" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>6.1</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J21" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K21" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R21" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S21" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>6.2</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J22" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K22" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L22" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M22" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N22" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O22" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P22" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R22" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K23" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L23" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M23" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N23" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O23" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P23" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R23" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>7.1</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J24" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K24" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R24" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S24" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>7.2</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J25" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K25" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L25" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M25" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N25" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O25" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P25" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R25" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K26" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L26" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M26" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N26" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O26" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P26" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R26" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>8.1</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+      <c r="I27" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J27" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K27" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R27" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S27" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>8.2</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J28" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K28" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L28" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M28" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N28" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O28" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P28" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R28" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6</v>
+      </c>
+      <c r="J29" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K29" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L29" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M29" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N29" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O29" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P29" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R29" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>9.1</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J30" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K30" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R30" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S30" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>9.2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+      <c r="I31" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J31" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K31" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L31" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M31" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N31" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O31" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P31" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R31" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K32" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L32" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M32" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N32" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O32" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P32" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R32" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>10.1</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J33" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K33" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R33" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S33" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>10.2</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+      <c r="I34" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J34" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K34" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L34" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M34" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N34" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O34" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P34" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R34" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K35" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L35" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M35" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N35" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O35" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P35" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R35" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>11.1</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+      <c r="I36" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J36" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K36" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R36" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S36" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>11.2</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J37" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K37" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L37" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M37" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N37" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O37" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P37" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R37" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="n">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>6</v>
+      </c>
+      <c r="J38" t="n">
+        <v>42.3567213114754</v>
+      </c>
+      <c r="K38" t="n">
+        <v>100.4254098360654</v>
+      </c>
+      <c r="L38" t="n">
+        <v>240.694918032787</v>
+      </c>
+      <c r="M38" t="n">
+        <v>277.8386065573769</v>
+      </c>
+      <c r="N38" t="n">
+        <v>265.4525409836069</v>
+      </c>
+      <c r="O38" t="n">
+        <v>205.4242622950821</v>
+      </c>
+      <c r="P38" t="n">
+        <v>138.6449180327866</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="R38" t="n">
+        <v>21.67278688524589</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>12.1</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="n">
+        <v>64.99396984924624</v>
+      </c>
+      <c r="J39" t="n">
+        <v>490.0241959798996</v>
+      </c>
+      <c r="K39" t="n">
+        <v>898.7475125628141</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1184.968391959799</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1349.179422110553</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1376.136733668342</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1268.491633165829</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1054.938618090452</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>689.3644974874371</v>
+      </c>
+      <c r="R39" t="n">
+        <v>288.2728894472362</v>
+      </c>
+      <c r="S39" t="n">
+        <v>32.84321608040202</v>
+      </c>
+      <c r="T39" t="n">
+        <v>2</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>12.2</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>14.18264150943397</v>
+      </c>
+      <c r="J40" t="n">
+        <v>80.7667924528302</v>
+      </c>
+      <c r="K40" t="n">
+        <v>402.066462264151</v>
+      </c>
+      <c r="L40" t="n">
+        <v>678.9068396226417</v>
+      </c>
+      <c r="M40" t="n">
+        <v>858.7249999999998</v>
+      </c>
+      <c r="N40" t="n">
+        <v>890.1425943396227</v>
+      </c>
+      <c r="O40" t="n">
+        <v>763.6046698113207</v>
+      </c>
+      <c r="P40" t="n">
+        <v>545.0578301886793</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>198.4267924528302</v>
+      </c>
+      <c r="R40" t="n">
+        <v>46.29886792452833</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>34.14970491803278</v>
+      </c>
+      <c r="K41" t="n">
+        <v>82.124426229508</v>
+      </c>
+      <c r="L41" t="n">
+        <v>214.8591147540984</v>
+      </c>
+      <c r="M41" t="n">
+        <v>250.181950819672</v>
+      </c>
+      <c r="N41" t="n">
+        <v>238.5304426229511</v>
+      </c>
+      <c r="O41" t="n">
+        <v>180.9580327868854</v>
+      </c>
+      <c r="P41" t="n">
+        <v>118.5211147540981</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>29.708</v>
+      </c>
+      <c r="R41" t="n">
+        <v>17.87095081967212</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="n">
+        <v>51.19577889447237</v>
+      </c>
+      <c r="J42" t="n">
+        <v>453.8800753768845</v>
+      </c>
+      <c r="K42" t="n">
+        <v>842.0028894472362</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1113.040150753769</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1268.672085427136</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1294.258743718593</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1191.410628140703</v>
+      </c>
+      <c r="P42" t="n">
+        <v>989.7671608040201</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>640.8694221105527</v>
+      </c>
+      <c r="R42" t="n">
+        <v>262.1695728643217</v>
+      </c>
+      <c r="S42" t="n">
+        <v>26.29025125628142</v>
+      </c>
+      <c r="T42" t="n">
+        <v>2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12.62784905660378</v>
+      </c>
+      <c r="J43" t="n">
+        <v>63.73675471698115</v>
+      </c>
+      <c r="K43" t="n">
+        <v>367.5868396226415</v>
+      </c>
+      <c r="L43" t="n">
+        <v>629.6674433962265</v>
+      </c>
+      <c r="M43" t="n">
+        <v>800.1409999999998</v>
+      </c>
+      <c r="N43" t="n">
+        <v>829.8516509433963</v>
+      </c>
+      <c r="O43" t="n">
+        <v>709.0569716981131</v>
+      </c>
+      <c r="P43" t="n">
+        <v>502.6575283018868</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>171.7908679245284</v>
+      </c>
+      <c r="R43" t="n">
+        <v>37.20920754716983</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>6</v>
+      </c>
+      <c r="J44" t="n">
+        <v>34.14970491803278</v>
+      </c>
+      <c r="K44" t="n">
+        <v>82.124426229508</v>
+      </c>
+      <c r="L44" t="n">
+        <v>214.8591147540984</v>
+      </c>
+      <c r="M44" t="n">
+        <v>250.181950819672</v>
+      </c>
+      <c r="N44" t="n">
+        <v>238.5304426229511</v>
+      </c>
+      <c r="O44" t="n">
+        <v>180.9580327868854</v>
+      </c>
+      <c r="P44" t="n">
+        <v>118.5211147540981</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>29.708</v>
+      </c>
+      <c r="R44" t="n">
+        <v>17.87095081967212</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+      <c r="I45" t="n">
+        <v>51.19577889447237</v>
+      </c>
+      <c r="J45" t="n">
+        <v>453.8800753768845</v>
+      </c>
+      <c r="K45" t="n">
+        <v>842.0028894472362</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1113.040150753769</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1268.672085427136</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1294.258743718593</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1191.410628140703</v>
+      </c>
+      <c r="P45" t="n">
+        <v>989.7671608040201</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>640.8694221105527</v>
+      </c>
+      <c r="R45" t="n">
+        <v>262.1695728643217</v>
+      </c>
+      <c r="S45" t="n">
+        <v>26.29025125628142</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>14.2</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>12.62784905660378</v>
+      </c>
+      <c r="J46" t="n">
+        <v>63.73675471698115</v>
+      </c>
+      <c r="K46" t="n">
+        <v>367.5868396226415</v>
+      </c>
+      <c r="L46" t="n">
+        <v>629.6674433962265</v>
+      </c>
+      <c r="M46" t="n">
+        <v>800.1409999999998</v>
+      </c>
+      <c r="N46" t="n">
+        <v>829.8516509433963</v>
+      </c>
+      <c r="O46" t="n">
+        <v>709.0569716981131</v>
+      </c>
+      <c r="P46" t="n">
+        <v>502.6575283018868</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>171.7908679245284</v>
+      </c>
+      <c r="R46" t="n">
+        <v>37.20920754716983</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
